--- a/(development)/daily routine.xlsx
+++ b/(development)/daily routine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C7B3E3-4722-4F87-BA16-70028C8641EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3564480-665E-446C-B50C-46A231B738D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>group</t>
   </si>
   <si>
-    <t>kasowanie smieci gerer freactals</t>
-  </si>
-  <si>
     <t>parler like a pro</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>1h</t>
+  </si>
+  <si>
+    <t>kasowanie smieci, tout simplifier</t>
   </si>
 </sst>
 </file>
@@ -522,15 +522,15 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="9.109375" style="2"/>
+    <col min="18" max="18" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2803.163</v>
       </c>
@@ -580,19 +580,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="5"/>
       <c r="Q3" t="s">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -640,41 +640,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>14</v>
       </c>
@@ -682,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>15</v>
       </c>
@@ -690,9 +690,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/daily routine.xlsx
+++ b/(development)/daily routine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3564480-665E-446C-B50C-46A231B738D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE968E2-7E36-47FD-8710-397B5DC5441C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>Louis</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{22F1790B-B6F8-4591-8441-390C0F2C2060}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{22F1790B-B6F8-4591-8441-390C0F2C2060}">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{43957466-9DA6-4E75-ADEA-F6936D837533}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{43957466-9DA6-4E75-ADEA-F6936D837533}">
       <text>
         <r>
           <rPr>
@@ -78,87 +78,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>abdos</t>
   </si>
   <si>
-    <t xml:space="preserve">ok </t>
-  </si>
-  <si>
-    <t>16.02.2023</t>
-  </si>
-  <si>
-    <t>17.02.2023</t>
-  </si>
-  <si>
-    <t>19.02.2023</t>
-  </si>
-  <si>
-    <t>21.02.2023</t>
-  </si>
-  <si>
-    <t>22.02.2023</t>
-  </si>
-  <si>
-    <t>24.02.2023</t>
-  </si>
-  <si>
-    <t>1.03.2023</t>
-  </si>
-  <si>
-    <t>02.03.2023</t>
-  </si>
-  <si>
-    <t>06.03.2023</t>
-  </si>
-  <si>
-    <t>07.03.2023</t>
-  </si>
-  <si>
     <t>ngrx</t>
   </si>
   <si>
-    <t>8.03.2023</t>
-  </si>
-  <si>
-    <t>10.03.2023</t>
-  </si>
-  <si>
     <t>Oauth 2</t>
   </si>
   <si>
-    <t>Daily Expaceo</t>
-  </si>
-  <si>
-    <t>importance</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>parler like a pro</t>
   </si>
   <si>
-    <t>interesuj sie czymc</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>uzupelnianie testow encours - az400</t>
   </si>
   <si>
-    <t>Daily Routine</t>
-  </si>
-  <si>
     <t>1 heure micro questions reponses</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>kasowanie smieci, tout simplifier</t>
+    <t>Simplifier &amp; se lire, se passioner</t>
   </si>
 </sst>
 </file>
@@ -194,34 +134,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -231,10 +147,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -519,185 +433,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="18" max="18" width="9.140625" style="2"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>2803.163</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1">
-        <v>17.03</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>5</v>
-      </c>
-      <c r="U1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="Q3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>6</v>
-      </c>
-      <c r="R4" s="2">
-        <v>12</v>
-      </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/(development)/daily routine.xlsx
+++ b/(development)/daily routine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE968E2-7E36-47FD-8710-397B5DC5441C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F37F3BF-A296-4793-B8F7-4EC380550A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>abdos</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>uzupelnianie testow encours - az400</t>
-  </si>
-  <si>
-    <t>1 heure micro questions reponses</t>
   </si>
   <si>
     <t>Simplifier &amp; se lire, se passioner</t>
@@ -433,55 +430,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E13"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/daily routine.xlsx
+++ b/(development)/daily routine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F37F3BF-A296-4793-B8F7-4EC380550A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC694EB-6A95-46BB-A63F-D3F3211BA36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>abdos</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Simplifier &amp; se lire, se passioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xunit, spy, </t>
+  </si>
+  <si>
+    <t>upload</t>
   </si>
 </sst>
 </file>
@@ -430,50 +436,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/daily routine.xlsx
+++ b/(development)/daily routine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC694EB-6A95-46BB-A63F-D3F3211BA36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A596E-A489-405D-BFE6-6C8F6129D867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -78,15 +78,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>abdos</t>
-  </si>
-  <si>
-    <t>ngrx</t>
-  </si>
-  <si>
-    <t>Oauth 2</t>
   </si>
   <si>
     <t>parler like a pro</t>
@@ -98,10 +92,7 @@
     <t>Simplifier &amp; se lire, se passioner</t>
   </si>
   <si>
-    <t xml:space="preserve">xunit, spy, </t>
-  </si>
-  <si>
-    <t>upload</t>
+    <t>drawing</t>
   </si>
 </sst>
 </file>
@@ -436,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,12 +441,12 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -472,27 +463,12 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/daily routine.xlsx
+++ b/(development)/daily routine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A596E-A489-405D-BFE6-6C8F6129D867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A548317-7774-4CA3-8407-38D3017FC77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>abdos</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>drawing</t>
+  </si>
+  <si>
+    <t>korzysc az400 vs korzysc dev, poswiecaj czas na ng, interview preapration</t>
   </si>
 </sst>
 </file>
@@ -427,46 +430,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>

--- a/(development)/daily routine.xlsx
+++ b/(development)/daily routine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A548317-7774-4CA3-8407-38D3017FC77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D25DC64-3613-4BC8-8384-89ABC07EF04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -433,45 +433,45 @@
   <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
